--- a/biology/Botanique/Liste_des_départements_français_classés_par_superficie_forestière/Liste_des_départements_français_classés_par_superficie_forestière.xlsx
+++ b/biology/Botanique/Liste_des_départements_français_classés_par_superficie_forestière/Liste_des_départements_français_classés_par_superficie_forestière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_d%C3%A9partements_fran%C3%A7ais_class%C3%A9s_par_superficie_foresti%C3%A8re</t>
+          <t>Liste_des_départements_français_classés_par_superficie_forestière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la surface occupée par la forêt dans chaque département français.
 Les sources proviennent, pour la métropole, du site internet de l'Institut national de l'information géographique et forestière. Dans cette présentation, l'ensemble de l'Île-de-France, excepté la Seine-et-Marne, est assimilée à un département unique.
 On note que seuls huit départements français sont couverts à plus de 60 % de forêts, dont deux outre-mer (la Guyane, les Landes, le Var, les Alpes-Maritimes, les Alpes-de-Haute-Provence, l'Ardèche et les départements corses). À l'inverse, en 2016, cinq départements ont moins de 10 % de leur territoire couvert de forêts.
-En 2021, le taux de boisement en France métropolitaine était de 31 % (et de 41 % du territoire français) soit 17,1 millions d'hectares (et 26 millions d'hectares en incluant les DROM)[1].
-Les régions naturelles ayant connu l'extension la plus forte sont la Corse, les Vosges et le Jura[2].
+En 2021, le taux de boisement en France métropolitaine était de 31 % (et de 41 % du territoire français) soit 17,1 millions d'hectares (et 26 millions d'hectares en incluant les DROM).
+Les régions naturelles ayant connu l'extension la plus forte sont la Corse, les Vosges et le Jura.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_d%C3%A9partements_fran%C3%A7ais_class%C3%A9s_par_superficie_foresti%C3%A8re</t>
+          <t>Liste_des_départements_français_classés_par_superficie_forestière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Taux de boisement des départements métropolitains en 2022
